--- a/src/main/webapp/assets/exceltpl/equipment.xlsx
+++ b/src/main/webapp/assets/exceltpl/equipment.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梅煌\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\webapp\assets\exceltpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575CF4F6-C310-4A0D-8F11-1D83C35F6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B37CB-BA10-4240-B507-6FBEC780A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="equipment" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -25,7 +25,7 @@
     <author>Acer</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>*设备编码</t>
   </si>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>设备档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -115,20 +119,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -137,15 +162,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -467,26 +498,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/webapp/assets/exceltpl/equipment.xlsx
+++ b/src/main/webapp/assets/exceltpl/equipment.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fengfu\fengfu-pubbase\src\main\webapp\assets\exceltpl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B37CB-BA10-4240-B507-6FBEC780A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Acer</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,13 +48,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>*设备编码</t>
+    <t>设备档案</t>
   </si>
   <si>
-    <t>*设备名称</t>
+    <t>设备编码</t>
   </si>
   <si>
-    <t>*产线名称</t>
+    <t>设备名称</t>
+  </si>
+  <si>
+    <t>产线名称</t>
   </si>
   <si>
     <t>是否导电咀更换</t>
@@ -68,16 +65,18 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>设备档案</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -86,12 +85,167 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -99,27 +253,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +263,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,22 +464,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -166,30 +729,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -476,63 +1083,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="21.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="29.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+    <row r="3" spans="4:4">
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/assets/exceltpl/equipment.xlsx
+++ b/src/main/webapp/assets/exceltpl/equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>设备档案</t>
   </si>
   <si>
-    <t>设备编码</t>
+    <t>*设备编码</t>
   </si>
   <si>
-    <t>设备名称</t>
+    <t>*设备名称</t>
   </si>
   <si>
-    <t>产线名称</t>
+    <t>*产线名称</t>
   </si>
   <si>
-    <t>是否导电咀更换</t>
+    <t>*是否导电咀更换</t>
   </si>
   <si>
     <t>备注</t>
@@ -76,14 +76,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -243,12 +236,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -580,48 +573,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,97 +627,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,16 +722,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1085,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>

--- a/src/main/webapp/assets/exceltpl/equipment.xlsx
+++ b/src/main/webapp/assets/exceltpl/equipment.xlsx
@@ -51,7 +51,7 @@
     <t>设备档案</t>
   </si>
   <si>
-    <t>*设备编码</t>
+    <t>设备编码</t>
   </si>
   <si>
     <t>*设备名称</t>

--- a/src/main/webapp/assets/exceltpl/equipment.xlsx
+++ b/src/main/webapp/assets/exceltpl/equipment.xlsx
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
